--- a/Excel/ErrorCfg@c.xlsx
+++ b/Excel/ErrorCfg@c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="20490" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="ErrorCode" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>UnitDead</t>
+  </si>
+  <si>
+    <t>UnitNotExit</t>
+  </si>
+  <si>
+    <t>找不到目标</t>
   </si>
 </sst>
 </file>
@@ -1329,10 +1335,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F32"/>
+  <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1731,6 +1737,20 @@
         <v>对象已死亡</v>
       </c>
     </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="3">
+        <v>200602</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="4">
+        <v>50602</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/ErrorCfg@c.xlsx
+++ b/Excel/ErrorCfg@c.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCNUET8\ETSCNU\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D21774-BB76-43CC-B087-4C8C895894C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7125"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ErrorCode" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -141,19 +145,57 @@
   </si>
   <si>
     <t>找不到目标</t>
+  </si>
+  <si>
+    <t>#数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值类型不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值类型不为可加点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可加点数不足</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericTypeNotExist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericTypeNotAddpoint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddpointNotEnough</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpNotEnough</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpNumError</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验值不足</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验值错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,151 +217,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,194 +244,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -527,253 +253,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -791,73 +275,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Error"/>
@@ -1329,30 +785,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:6">
+    <row r="3" spans="2:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1374,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="2:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +842,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="2:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1398,7 +854,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" spans="2:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>200001</v>
       </c>
@@ -1413,7 +869,7 @@
         <v>网络错误</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:6">
+    <row r="7" spans="2:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>200002</v>
       </c>
@@ -1428,7 +884,7 @@
         <v>请求过快</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:6">
+    <row r="8" spans="2:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>200003</v>
       </c>
@@ -1443,7 +899,7 @@
         <v>找不到配置</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:6">
+    <row r="9" spans="2:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>200004</v>
       </c>
@@ -1458,14 +914,14 @@
         <v>输入参数有误</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C11" s="3">
         <v>200101</v>
       </c>
@@ -1480,7 +936,7 @@
         <v>其他人登录</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C12" s="3">
         <v>200102</v>
       </c>
@@ -1495,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C13" s="3">
         <v>200103</v>
       </c>
@@ -1510,7 +966,7 @@
         <v>没有该玩家</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C14" s="3">
         <v>200104</v>
       </c>
@@ -1525,7 +981,7 @@
         <v>进入游戏出错</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C15" s="3">
         <v>200105</v>
       </c>
@@ -1540,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C16" s="3">
         <v>200106</v>
       </c>
@@ -1555,7 +1011,7 @@
         <v>玩家名字重复</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C17" s="3">
         <v>200107</v>
       </c>
@@ -1570,16 +1026,16 @@
         <v>角色不存在</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C20" s="3">
         <v>200201</v>
       </c>
@@ -1594,7 +1050,7 @@
         <v>任务未完成</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C21" s="3">
         <v>200202</v>
       </c>
@@ -1609,7 +1065,7 @@
         <v>任务已提交</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C22" s="3">
         <v>200203</v>
       </c>
@@ -1624,13 +1080,13 @@
         <v>任务已超时</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C24" s="3">
         <v>200301</v>
       </c>
@@ -1645,13 +1101,13 @@
         <v>道具不足</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C26" s="3">
         <v>200401</v>
       </c>
@@ -1666,7 +1122,7 @@
         <v>找不到讨论组</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C27" s="3">
         <v>200402</v>
       </c>
@@ -1681,13 +1137,13 @@
         <v>讨论组已存在</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C29" s="3">
         <v>200501</v>
       </c>
@@ -1702,7 +1158,7 @@
         <v>执行GS命令出错</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C30" s="3">
         <v>200502</v>
       </c>
@@ -1717,12 +1173,12 @@
         <v>没有找到GS命令</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="3:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C32" s="3">
         <v>200601</v>
       </c>
@@ -1737,7 +1193,7 @@
         <v>对象已死亡</v>
       </c>
     </row>
-    <row r="33" spans="3:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C33" s="3">
         <v>200602</v>
       </c>
@@ -1751,9 +1207,90 @@
         <v>36</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11">
+        <v>200701</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="13">
+        <v>50701</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11">
+        <v>200702</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="13">
+        <v>50702</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11">
+        <v>200703</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="13">
+        <v>50703</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C38" s="11">
+        <v>200704</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="13">
+        <v>50704</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C39" s="11">
+        <v>200705</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="13">
+        <v>50705</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>